--- a/modelos_usina.xlsx
+++ b/modelos_usina.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,4753 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vendedor</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Produto</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Marca</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Frete Grátis</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Qtde</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Preço Unitário</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Produto2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fonte carregador usina 70a bivolt limited edition cor preto</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>USINA LIMITED</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
+        <v>424.65</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4246.5</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>fonte carregador usina 12v 70a limited v</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>USINA LIMITED</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>487.72</v>
+      </c>
+      <c r="G3" t="n">
+        <v>487.72</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>fonte carregador usina 70a bivolt limited edition cor preto</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>USINA LIMITED</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>487.72</v>
+      </c>
+      <c r="G4" t="n">
+        <v>487.72</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>inversor de tensão senoidal usina inverter 5000w 24v 220v</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>USINA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4335</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4335</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>INVERSOR 5000W</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>fonte carregador usina 24v 30a truck lin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>USINA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>624</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3744</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>fonte carregador usina bob 200 amperes bivolt dynamic cor preto</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>USINA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>588</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3528</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>fonte automotiva usina 120a bob dynamic automatica bivolt cor preto - amarelo</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>USINA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>503</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3521</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>fonte e carregador usina 50a 48v lançame</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>USINA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1012</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3036</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP 2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>inversor usina onda senoidal pura 3000w 12v 120v 6000w pico</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>USINA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3026.73</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3026.73</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>INVERSOR 600W</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP 2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>fonte automotiva usina 12v - 320a pro edition pfc full range</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>USINA</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1423.11</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2846.22</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>inversor de tensão senoidal usina inverter 2500w 24v 120v</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>USINA</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2765</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2765</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>INVERSOR 2500W</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>inversor tensão senoidal usina 2000w 12 volts 220v onda pura</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>USINA</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2462.1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2462.1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>INVERSOR 2000W</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>inversor tensão senoidal usina 2000w 12 volts 120v onda pura</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>USINA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2170</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2170</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>INVERSOR 2000W</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>fonte carregador usina smart truck line 100a bivolt 28,8v cor preto</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>USINA</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>986</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1972</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>fonte carregador usina bob 200 amperes bivolt dynamic cor preto</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>USINA</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>588</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1764</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>fonte automotiva 70a 24v usina truckline</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>USINA</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>769</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1538</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>fonte automotiva usina 12v - 320a pro edition pfc full range</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>USINA</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1419</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1419</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CARROSOM SHOP</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>inversor tensão senoidal usina inverter</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>USINA</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1376.55</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1376.55</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>inversor onda senoidal usina  600w 12v 1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>USINA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>952.65</v>
+      </c>
+      <c r="G20" t="n">
+        <v>952.65</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>INVERSOR 600W</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP 2</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>inversor tensão senoidal usina 600w 12 volts 220v onda pura</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>USINA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>927.42</v>
+      </c>
+      <c r="G21" t="n">
+        <v>927.42</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>INVERSOR 600W</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MUNDO ELETROSS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>fonte automotiva spark usina smart 200a</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>USINA</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>838</v>
+      </c>
+      <c r="G22" t="n">
+        <v>838</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MUNDO ELETROSS</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>fonte carregador usina aux. d/partida ch</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>USINA</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>692</v>
+      </c>
+      <c r="G23" t="n">
+        <v>692</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>fonte e carregador automotivo usina 70a volt full</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>USINA SPARK</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" t="n">
+        <v>465</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1860</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>fonte carregador usina 120 ah bob slim bivolt</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>USINA SPARK</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>465</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1860</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>fonte carregador usina 120 ah bob slim bivolt</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>USINA SPARK</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>465</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1395</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>LOJA DO SOM 3</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>fonte digital 120a usina automotivo 120</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>USINA SPARK</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>674</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1348</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>fonte carregador usina 120a bob slim biv</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>USINA SPARK</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>465</v>
+      </c>
+      <c r="G28" t="n">
+        <v>930</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>LOJA DO SOM</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>fonte carregador usina spark 100 amperes</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>USINA SPARK</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>580</v>
+      </c>
+      <c r="G29" t="n">
+        <v>580</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>fonte e carregador automotivo usina 70a volt full</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>USINA SPARK</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>548</v>
+      </c>
+      <c r="G30" t="n">
+        <v>548</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>fonte automotiva usina spark 200a 12v bivolt smart som autom cor preto - amarelo</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>6</v>
+      </c>
+      <c r="F31" t="n">
+        <v>838</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5028</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>fonte carregador automotiva usina 120a volt/amp black friday cor amarelo</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>8</v>
+      </c>
+      <c r="F32" t="n">
+        <v>607</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4856</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>fonte e carregador usina bob 60a bivolt cor preto</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>12</v>
+      </c>
+      <c r="F33" t="n">
+        <v>345</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4140</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>fonte automotiva usina spark 200a 12v bivolt smart som autom cor preto - amarelo</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>792</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3960</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MAKLEIN3920240920055314</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>mesa dmx 512 controladora 192 canais cabo dmx 110v/220v</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>21</v>
+      </c>
+      <c r="F35" t="n">
+        <v>188.34</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3955.14</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>fonte automotiva usina spark 120a bivolt baterry meter</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>6</v>
+      </c>
+      <c r="F36" t="n">
+        <v>642</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3852</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MAKLEIN3920240920055314</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>mesa dmx comand wing + case</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3490</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3490</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>fonte automotivo usina 200a 14.4v voltimetro monovolt 220v cor preto e amarelo</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>5</v>
+      </c>
+      <c r="F38" t="n">
+        <v>696.88</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3484.4</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>fonte e carregador de baterias usina tru</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>3</v>
+      </c>
+      <c r="F39" t="n">
+        <v>907.12</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2721.36</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>fonte carregador de baterias usina truck</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>3</v>
+      </c>
+      <c r="F40" t="n">
+        <v>887</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2661</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>fonte carregador usina smart 70a bivolt 14,4v battery meter cor preto e amarelo</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>6</v>
+      </c>
+      <c r="F41" t="n">
+        <v>438</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2628</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>fonte carregador automotiva usina 120a volt/amp black friday cor amarelo</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>4</v>
+      </c>
+      <c r="F42" t="n">
+        <v>643</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2572</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>SHOP PRÁTICO</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>fonte automotiva usina spark 120a bivolt baterry meter</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>4</v>
+      </c>
+      <c r="F43" t="n">
+        <v>577.79</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2311.16</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>fonte automotiva 220a - 12v bivolt usina spark - heavy duty</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" t="n">
+        <v>946</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1892</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>fonte automotiva usina smart 120a bivolt battery metter</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>3</v>
+      </c>
+      <c r="F45" t="n">
+        <v>616</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1848</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>fonte automotiva usina spark 120a bivolt baterry meter</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>3</v>
+      </c>
+      <c r="F46" t="n">
+        <v>578</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1734</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>fonte automotiva usina 12v 220a volt amp</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" t="n">
+        <v>851</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1702</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>fonte automotiva 220a - 12v bivolt usina spark - heavy duty</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>851</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1702</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>496508</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>máquina de fumaça 1200w + 6 leds rgb</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>5</v>
+      </c>
+      <c r="F49" t="n">
+        <v>339</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1695</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>fonte carregador usina spark 50a baterry meter 2021 bivolt cor amarelo</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>4</v>
+      </c>
+      <c r="F50" t="n">
+        <v>410</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1640</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>fonte automotiva 220a - 12v bivolt usina spark - heavy duty</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>815</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1630</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>inversor de tensão senoidal usina 1500w 12v 220v onda pura</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1599.06</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1599.06</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>INVERSOR 1500W</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>TET ACESSÓRIOS</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>fonte automotivo usina 200a 14.4v voltimetro monovolt 220v cor preto e amarelo</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>2</v>
+      </c>
+      <c r="F53" t="n">
+        <v>789.52</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1579.04</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>TECNOAUDIO</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>fonte usina 400-a amperes bivolt flex 12</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1529</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1529</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>fonte automotiva usina 200a voltímetro d</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>2</v>
+      </c>
+      <c r="F55" t="n">
+        <v>754</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1508</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>ELETROKING</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>fonte carregador automotiva usina 120a volt/amp black friday cor amarelo</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" t="n">
+        <v>654</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1308</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ATACADÃO MIX</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>fonte automotiva usina 12v 320a pro edit</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1307.2</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1307.2</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>496508</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>refletor brut led 200w branco frio branco quente strobo dmx 110v/220v</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>3</v>
+      </c>
+      <c r="F58" t="n">
+        <v>430</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1290</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>496508</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>kit 2x mini moving beam 100w 8 desenhos</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1276</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1276</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>fonte automotiva usina 12v 240a pro edit</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1251</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1251</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>nova fonte automotiva usina caixa bob 200a bivolt automática</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>625</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1250</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>SHOP PRÁTICO</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>fonte automotiva usina 120a 14.4v bivolt</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" t="n">
+        <v>606.6</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1213.2</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SHOP PRÁTICO</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>fonte carregador automotivo usina 70a voltímetro bivolt</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>2</v>
+      </c>
+      <c r="F63" t="n">
+        <v>548</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1096</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>496508</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2x moving head spot led 60w com disco fi</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1049.9</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1049.9</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>conversor usina redutor de tensão 120a 24v para 12v</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1025</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1025</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>SHOP PRÁTICO</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>fonte carregador usina smart 70a bivolt 14,4v battery meter cor preto e amarelo</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>2</v>
+      </c>
+      <c r="F66" t="n">
+        <v>487</v>
+      </c>
+      <c r="G66" t="n">
+        <v>974</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>fonte carregador usina 12v 70a battery m</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>2</v>
+      </c>
+      <c r="F67" t="n">
+        <v>448.04</v>
+      </c>
+      <c r="G67" t="n">
+        <v>896.08</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>RADICALSOM 2</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>(kit) fonte usina 200a bivolt c/ control</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>880</v>
+      </c>
+      <c r="G68" t="n">
+        <v>880</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>TECNOAUDIO</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>fonte usina 200a limited digital som aut</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" t="n">
+        <v>880</v>
+      </c>
+      <c r="G69" t="n">
+        <v>880</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>496508</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2x refletor brut led 200w branco + rgb s</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" t="n">
+        <v>849</v>
+      </c>
+      <c r="G70" t="n">
+        <v>849</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>RADICALSOM 2</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>kit fonte usina 120a volt c/ processador stetsom stx2448 cor amarelo</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" t="n">
+        <v>839</v>
+      </c>
+      <c r="G71" t="n">
+        <v>839</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>LOJA DO SOM</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>fonte digital 200a usina voltímetro 200</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>838</v>
+      </c>
+      <c r="G72" t="n">
+        <v>838</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>496508</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>kit 4x refletor canhão par led rgb 54 leds dmx strobo dj 110v/220v</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>2</v>
+      </c>
+      <c r="F73" t="n">
+        <v>419</v>
+      </c>
+      <c r="G73" t="n">
+        <v>838</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>fonte carregador automotiva spark usina smart 50a bivolt</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>2</v>
+      </c>
+      <c r="F74" t="n">
+        <v>413.95</v>
+      </c>
+      <c r="G74" t="n">
+        <v>827.9</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>SHOP PRÁTICO</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>fonte carregador usina spark 50a baterry meter 2021 bivolt cor amarelo</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>2</v>
+      </c>
+      <c r="F75" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="G75" t="n">
+        <v>819</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>PIKADULA PARTS</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>fonte automotiva spark usina 200a 14,4v 220v com voltimetro cor amarelo</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" t="n">
+        <v>808</v>
+      </c>
+      <c r="G76" t="n">
+        <v>808</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>BEST ONLINE</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>fonte automotiva spark usina 200a 14,4v 220v com voltimetro cor amarelo</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" t="n">
+        <v>808</v>
+      </c>
+      <c r="G77" t="n">
+        <v>808</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>fonte automotiva 70a 24v usina truckline</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" t="n">
+        <v>805</v>
+      </c>
+      <c r="G78" t="n">
+        <v>805</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>fonte automotiva 70a 24v usina truckline</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>805</v>
+      </c>
+      <c r="G79" t="n">
+        <v>805</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>YTRIUM SHOP</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>fonte spark usina 160a lugar 150a 14,4v</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>773.1</v>
+      </c>
+      <c r="G80" t="n">
+        <v>773.1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>YTRIUM SHOP</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>fonte automotiva 160 amperes 12v com voltímetro bivolt usina</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>773.1</v>
+      </c>
+      <c r="G81" t="n">
+        <v>773.1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>SHOP PRÁTICO</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>fonte automotivo usina 200a 14.4v voltimetro monovolt 220v cor preto e amarelo</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" t="n">
+        <v>765</v>
+      </c>
+      <c r="G82" t="n">
+        <v>765</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>SHOP PRÁTICO</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>fonte automotiva usina spark 200a 12v bivolt smart som autom cor preto - amarelo</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" t="n">
+        <v>754.2</v>
+      </c>
+      <c r="G83" t="n">
+        <v>754.2</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>fonte automotiva usina spark 200a 12v bivolt smart som autom cor preto - amarelo</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>754</v>
+      </c>
+      <c r="G84" t="n">
+        <v>754</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>fonte p/ caixa bob usina 200a voltímetro</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>754</v>
+      </c>
+      <c r="G85" t="n">
+        <v>754</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>fonte e carregador usina bob 60a bivolt cor preto</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>2</v>
+      </c>
+      <c r="F86" t="n">
+        <v>373</v>
+      </c>
+      <c r="G86" t="n">
+        <v>746</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>SHOP PRÁTICO</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>fonte automotivo usina 200a 14.4v voltimetro monovolt 220v cor preto e amarelo</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>727.2</v>
+      </c>
+      <c r="G87" t="n">
+        <v>727.2</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>fonte automotiva usina 160a 14,4v 220v com voltímetro som cor amarelo</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" t="n">
+        <v>709</v>
+      </c>
+      <c r="G88" t="n">
+        <v>709</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>SHOP PRÁTICO</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>fonte carregador usina 120a bivolt limited edition 15 anos cor preto</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>697.5</v>
+      </c>
+      <c r="G89" t="n">
+        <v>697.5</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>fonte bob usina p/ caixa bob 200a bivolt</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>694</v>
+      </c>
+      <c r="G90" t="n">
+        <v>694</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>usina charger profissional 60a auxiliar</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>692</v>
+      </c>
+      <c r="G91" t="n">
+        <v>692</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>fonte carregador bateria usina charger 60a regulador 14.4v cor amarelo</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>692</v>
+      </c>
+      <c r="G92" t="n">
+        <v>692</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>SHOP PRÁTICO</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>fonte automotiva usina spark 120a bivolt baterry meter</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" t="n">
+        <v>684</v>
+      </c>
+      <c r="G93" t="n">
+        <v>684</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>SHOP ÁUDIO</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>fonte automotiva spark usina 120a + controle jfa k600 comple cor amarelo</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" t="n">
+        <v>674</v>
+      </c>
+      <c r="G94" t="n">
+        <v>674</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>fonte carregador automotiva usina 120a volt/amp black friday cor amarelo</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" t="n">
+        <v>643</v>
+      </c>
+      <c r="G95" t="n">
+        <v>643</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>BEST ONLINE</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>fonte automotiva usina smart 120a bivolt battery metter</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" t="n">
+        <v>642</v>
+      </c>
+      <c r="G96" t="n">
+        <v>642</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>fonte 120 amperes usina smart cooler / c</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
+      <c r="F97" t="n">
+        <v>642</v>
+      </c>
+      <c r="G97" t="n">
+        <v>642</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>BEST ONLINE</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>fonte automotiva usina spark 120a bivolt baterry meter</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>642</v>
+      </c>
+      <c r="G98" t="n">
+        <v>642</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>SHOP PRÁTICO</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>fonte automotiva usina smart 120a bivolt battery metter</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" t="n">
+        <v>615.6</v>
+      </c>
+      <c r="G99" t="n">
+        <v>615.6</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>fonte carregador usina spark 100a voltimetro bivolt smart</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" t="n">
+        <v>550</v>
+      </c>
+      <c r="G100" t="n">
+        <v>550</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>SHOP PRÁTICO</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>fonte automotiva usina 100a smart bivolt com voltímetro 12v cor preto</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>1</v>
+      </c>
+      <c r="F101" t="n">
+        <v>549.9</v>
+      </c>
+      <c r="G101" t="n">
+        <v>549.9</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ELETROKING</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>fonte automotiva veicular usina 70-a amp</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" t="n">
+        <v>517</v>
+      </c>
+      <c r="G102" t="n">
+        <v>517</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>SHOP PRÁTICO</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>fonte carregador usina smart 70a bivolt 14,4v battery meter cor preto e amarelo</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>1</v>
+      </c>
+      <c r="F103" t="n">
+        <v>517</v>
+      </c>
+      <c r="G103" t="n">
+        <v>517</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>fonte carregador automotivo usina 70a voltímetro bivolt</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>1</v>
+      </c>
+      <c r="F104" t="n">
+        <v>517</v>
+      </c>
+      <c r="G104" t="n">
+        <v>517</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>fonte carregador usina 70a battery meter</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>1</v>
+      </c>
+      <c r="F105" t="n">
+        <v>487</v>
+      </c>
+      <c r="G105" t="n">
+        <v>487</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>LOJA DO SOM</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>fonte som automotivo 70 amperes bivolt c</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F106" t="n">
+        <v>487</v>
+      </c>
+      <c r="G106" t="n">
+        <v>487</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>BEST ONLINE</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>fonte carregador usina smart 70a bivolt 14,4v battery meter cor preto e amarelo</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" t="n">
+        <v>487</v>
+      </c>
+      <c r="G107" t="n">
+        <v>487</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>LOJA DO SOM</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>fonte automotiva usina 70a plus bi volt</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>1</v>
+      </c>
+      <c r="F108" t="n">
+        <v>487</v>
+      </c>
+      <c r="G108" t="n">
+        <v>487</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>496508</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>canhão refletor parled 36 leds 3w rgb tr</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>6</v>
+      </c>
+      <c r="F109" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="G109" t="n">
+        <v>473.4</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>fonte usina 120a dynamic bivolt 110/220</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>1</v>
+      </c>
+      <c r="F110" t="n">
+        <v>465</v>
+      </c>
+      <c r="G110" t="n">
+        <v>465</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>SPARK MUSICAL</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>cajon + vassourinha + cabo + shaker + ba</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>1</v>
+      </c>
+      <c r="F111" t="n">
+        <v>459</v>
+      </c>
+      <c r="G111" t="n">
+        <v>459</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>SHOP PRÁTICO</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>fonte carregador usina smart 70a bivolt</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>1</v>
+      </c>
+      <c r="F112" t="n">
+        <v>438.3</v>
+      </c>
+      <c r="G112" t="n">
+        <v>438.3</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>fonte carregador usina bob 60 amperes bi</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>1</v>
+      </c>
+      <c r="F113" t="n">
+        <v>414</v>
+      </c>
+      <c r="G113" t="n">
+        <v>414</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>SPARK MUSICAL</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>cajon colo pro + vassourinha + correia +</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>1</v>
+      </c>
+      <c r="F114" t="n">
+        <v>389</v>
+      </c>
+      <c r="G114" t="n">
+        <v>389</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>MUNDO ELETROSS</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>fonte e carregador usina bob 60a bivolt cor preto</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>1</v>
+      </c>
+      <c r="F115" t="n">
+        <v>383</v>
+      </c>
+      <c r="G115" t="n">
+        <v>383</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>fonte e carregador usina bob 60a bivolt cor preto</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>1</v>
+      </c>
+      <c r="F116" t="n">
+        <v>373</v>
+      </c>
+      <c r="G116" t="n">
+        <v>373</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>fonte carregador bob 60a amperes bivolt automático cor amarelo</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>1</v>
+      </c>
+      <c r="F117" t="n">
+        <v>373</v>
+      </c>
+      <c r="G117" t="n">
+        <v>373</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>SPARK MUSICAL</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>cajon de colo + cinto  + bag + vassourin</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>1</v>
+      </c>
+      <c r="F118" t="n">
+        <v>369</v>
+      </c>
+      <c r="G118" t="n">
+        <v>369</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>496508</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>multi efeito globo led rgbw moving strob</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>1</v>
+      </c>
+      <c r="F119" t="n">
+        <v>299</v>
+      </c>
+      <c r="G119" t="n">
+        <v>299</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>496508</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>kit 2x par led slim 12x3w rgbw-uv dmx st</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>1</v>
+      </c>
+      <c r="F120" t="n">
+        <v>279</v>
+      </c>
+      <c r="G120" t="n">
+        <v>279</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>496508</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>mini refletor strobo + efeitos led rgb +</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>1</v>
+      </c>
+      <c r="F121" t="n">
+        <v>249.9</v>
+      </c>
+      <c r="G121" t="n">
+        <v>249.9</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>EVA0520240919165107</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>cartucho universal spark linha 1rl 3rl 5</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>3</v>
+      </c>
+      <c r="F122" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="G122" t="n">
+        <v>227.7</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>PELACA20210528183634</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>tênis masculino feminino esportivo acade</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>2</v>
+      </c>
+      <c r="F123" t="n">
+        <v>64.98999999999999</v>
+      </c>
+      <c r="G123" t="n">
+        <v>129.98</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>MAKLEIN3920240920055314</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>projetor jardim laser temático natal ani</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>1</v>
+      </c>
+      <c r="F124" t="n">
+        <v>119.9</v>
+      </c>
+      <c r="G124" t="n">
+        <v>119.9</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>SPARK MUSICAL</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>bag case capa cajon de colo spark</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>79</v>
+      </c>
+      <c r="G125" t="n">
+        <v>79</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>PEREIRA740920240919163633</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>luminaria espelho penteadeira maquiagem</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>1</v>
+      </c>
+      <c r="F126" t="n">
+        <v>42.88</v>
+      </c>
+      <c r="G126" t="n">
+        <v>42.88</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>fonte automotiva usina 200a 14.4v voltimetro mono 220v cor preto e amarelo</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>SPARK USINA</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>2</v>
+      </c>
+      <c r="F127" t="n">
+        <v>808</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1616</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>EXTREME ÁUDIO</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>fonte digital usina 220a plus - 14,4v -</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>SPARK USINA</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>1</v>
+      </c>
+      <c r="F128" t="n">
+        <v>946</v>
+      </c>
+      <c r="G128" t="n">
+        <v>946</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>fonte carregador náutico usina nauticlin</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>SPARK USINA</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>2</v>
+      </c>
+      <c r="F129" t="n">
+        <v>404</v>
+      </c>
+      <c r="G129" t="n">
+        <v>808</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>MOTOR SHOP</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>fonte automotiva usina 200a 14.4v voltimetro mono 220v cor preto e amarelo</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>SPARK USINA</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>1</v>
+      </c>
+      <c r="F130" t="n">
+        <v>756.5</v>
+      </c>
+      <c r="G130" t="n">
+        <v>756.5</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>RADICALSOM 4</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>fonte carregador náutico usina nauticlin</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>SPARK USINA</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>1</v>
+      </c>
+      <c r="F131" t="n">
+        <v>409</v>
+      </c>
+      <c r="G131" t="n">
+        <v>409</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>LOJA DO SOM</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>fonte usina automotiva 60a bi volt bater</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>USINA BOB</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>1</v>
+      </c>
+      <c r="F132" t="n">
+        <v>383</v>
+      </c>
+      <c r="G132" t="n">
+        <v>383</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>INVERSOR</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/modelos_usina.xlsx
+++ b/modelos_usina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,17 +497,17 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
         <v>424.65</v>
       </c>
       <c r="G2" t="n">
-        <v>4246.5</v>
+        <v>2123.25</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>fonte carregador usina 12v 70a limited v</t>
+          <t>fonte carregador usina 70a bivolt limited edition cor preto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -543,24 +543,24 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>fonte carregador usina 70a bivolt limited edition cor preto</t>
+          <t>fonte carregador usina bob 200 amperes bivolt dynamic cor preto</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>USINA LIMITED</t>
+          <t>USINA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -569,29 +569,29 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>487.72</v>
+        <v>587.7</v>
       </c>
       <c r="G4" t="n">
-        <v>487.72</v>
+        <v>6464.7</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE BOB 200A</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>MOTOR SHOP 2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>inversor de tensão senoidal usina inverter 5000w 24v 220v</t>
+          <t>fonte automotiva usina 12v - 320a pro edition pfc full range</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -605,17 +605,17 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>4335</v>
+        <v>1423.11</v>
       </c>
       <c r="G5" t="n">
-        <v>4335</v>
+        <v>2846.22</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>INVERSOR 5000W</t>
+          <t>FONTE PFC 320A</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>fonte carregador usina 24v 30a truck lin</t>
+          <t>inversor usina onda senoidal pura 2500w</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -641,29 +641,29 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>624</v>
+        <v>2585.9</v>
       </c>
       <c r="G6" t="n">
-        <v>3744</v>
+        <v>2585.9</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>INVERSOR 2500W</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>fonte carregador usina bob 200 amperes bivolt dynamic cor preto</t>
+          <t>inversor tensão senoidal usina 2000w 12 volts 220v onda pura</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -677,17 +677,17 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>588</v>
+        <v>2063.14</v>
       </c>
       <c r="G7" t="n">
-        <v>3528</v>
+        <v>2063.14</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>INVERSOR 2000W</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>fonte automotiva usina 120a bob dynamic automatica bivolt cor preto - amarelo</t>
+          <t>fonte usina bob 200a bivolt dynamic</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -713,29 +713,29 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>503</v>
+        <v>587.7</v>
       </c>
       <c r="G8" t="n">
-        <v>3521</v>
+        <v>1763.1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE BOB 200A</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>fonte e carregador usina 50a 48v lançame</t>
+          <t>fonte automotiva usina 120a bob dynamic automatica bivolt cor preto - amarelo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -752,26 +752,26 @@
         <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>1012</v>
+        <v>503.1</v>
       </c>
       <c r="G9" t="n">
-        <v>3036</v>
+        <v>1509.3</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>FONTE BOB 120A</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MOTOR SHOP 2</t>
+          <t>LOJA DO SOM</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>inversor usina onda senoidal pura 3000w 12v 120v 6000w pico</t>
+          <t>fonte usina full range pro edition pfc a</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -788,26 +788,26 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>3026.73</v>
+        <v>1502.56</v>
       </c>
       <c r="G10" t="n">
-        <v>3026.73</v>
+        <v>1502.56</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>INVERSOR 600W</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MOTOR SHOP 2</t>
+          <t>MOTOR SHOP</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>fonte automotiva usina 12v - 320a pro edition pfc full range</t>
+          <t>fonte carregador usina bob 200 amperes bivolt dynamic cor preto</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -824,26 +824,26 @@
         <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>1423.11</v>
+        <v>587.6900000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>2846.22</v>
+        <v>1175.38</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE BOB 200A</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>MOTOR SHOP</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>inversor de tensão senoidal usina inverter 2500w 24v 120v</t>
+          <t>fonte automotiva usina 12v 120a pro edit</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -860,26 +860,26 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>2765</v>
+        <v>990</v>
       </c>
       <c r="G12" t="n">
-        <v>2765</v>
+        <v>990</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>INVERSOR 2500W</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>RADICALSOM 2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>inversor tensão senoidal usina 2000w 12 volts 220v onda pura</t>
+          <t>fonte digital usina truck line 100a 24v</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -896,26 +896,26 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>2462.1</v>
+        <v>986</v>
       </c>
       <c r="G13" t="n">
-        <v>2462.1</v>
+        <v>986</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>INVERSOR 2000W</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>MUNDO ELETROSS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>inversor tensão senoidal usina 2000w 12 volts 120v onda pura</t>
+          <t>fonte usina full range pro edition pfc ativo 120 amperes 12v cor preto</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -932,26 +932,26 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>2170</v>
+        <v>970</v>
       </c>
       <c r="G14" t="n">
-        <v>2170</v>
+        <v>970</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>INVERSOR 2000W</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>MOTOR SHOP</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>fonte carregador usina smart truck line 100a bivolt 28,8v cor preto</t>
+          <t>fonte carregador usina 70a bivolt automá</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -965,29 +965,29 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>986</v>
+        <v>493.2</v>
       </c>
       <c r="G15" t="n">
-        <v>1972</v>
+        <v>493.2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>MUNDO ELETROSS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>fonte carregador usina bob 200 amperes bivolt dynamic cor preto</t>
+          <t>conversor usina redutor de tensão 30a 24v para 12v</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1001,34 +1001,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>588</v>
+        <v>452</v>
       </c>
       <c r="G16" t="n">
-        <v>1764</v>
+        <v>452</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE 30A</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>fonte automotiva 70a 24v usina truckline</t>
+          <t>fonte e carregador automotivo usina 70a volt full</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>USINA</t>
+          <t>USINA SPARK</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1037,34 +1037,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>769</v>
+        <v>465.3</v>
       </c>
       <c r="G17" t="n">
-        <v>1538</v>
+        <v>2791.8</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>MOTOR SHOP</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>fonte automotiva usina 12v - 320a pro edition pfc full range</t>
+          <t>fonte carregador usina 120 ah bob slim bivolt</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>USINA</t>
+          <t>USINA SPARK</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1073,34 +1073,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>1419</v>
+        <v>465.3</v>
       </c>
       <c r="G18" t="n">
-        <v>1419</v>
+        <v>1395.9</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE BOB 120A</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CARROSOM SHOP</t>
+          <t>MOTOR SHOP</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>inversor tensão senoidal usina inverter</t>
+          <t>fonte carregador usina 120 ah bob slim bivolt</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>USINA</t>
+          <t>USINA SPARK</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1112,31 +1112,31 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>1376.55</v>
+        <v>503.09</v>
       </c>
       <c r="G19" t="n">
-        <v>1376.55</v>
+        <v>503.09</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE BOB 120A</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>inversor onda senoidal usina  600w 12v 1</t>
+          <t>fonte e carregador automotivo usina 70a volt full</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>USINA</t>
+          <t>USINA SPARK</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1148,31 +1148,31 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>952.65</v>
+        <v>465.3</v>
       </c>
       <c r="G20" t="n">
-        <v>952.65</v>
+        <v>465.3</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>INVERSOR 600W</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MOTOR SHOP 2</t>
+          <t>MOTOR SHOP</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>inversor tensão senoidal usina 600w 12 volts 220v onda pura</t>
+          <t>fonte automotiva 220a - 12v bivolt usina spark - heavy duty</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>USINA</t>
+          <t>SPARK</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1181,34 +1181,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>927.42</v>
+        <v>851.4</v>
       </c>
       <c r="G21" t="n">
-        <v>927.42</v>
+        <v>4257</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>INVERSOR 600W</t>
+          <t>FONTE 220A</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MUNDO ELETROSS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>fonte automotiva spark usina smart 200a</t>
+          <t>fonte automotiva usina spark 200a 12v bivolt smart som autom cor preto - amarelo</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>USINA</t>
+          <t>SPARK</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1217,34 +1217,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
-        <v>838</v>
+        <v>792</v>
       </c>
       <c r="G22" t="n">
-        <v>838</v>
+        <v>3168</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MUNDO ELETROSS</t>
+          <t>MAKLEIN3920240920055314</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>fonte carregador usina aux. d/partida ch</t>
+          <t>mesa dmx 512 controladora 192 canais cabo dmx 110v/220v</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>USINA</t>
+          <t>SPARK</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1253,17 +1253,17 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F23" t="n">
-        <v>692</v>
+        <v>188.34</v>
       </c>
       <c r="G23" t="n">
-        <v>692</v>
+        <v>2636.76</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
@@ -1275,12 +1275,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>fonte e carregador automotivo usina 70a volt full</t>
+          <t>fonte carregador automotiva usina 120a volt/amp black friday cor amarelo</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>USINA SPARK</t>
+          <t>SPARK</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1292,31 +1292,31 @@
         <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>465</v>
+        <v>606.6</v>
       </c>
       <c r="G24" t="n">
-        <v>1860</v>
+        <v>2426.4</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>MAKLEIN3920240920055314</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>fonte carregador usina 120 ah bob slim bivolt</t>
+          <t>projetor laser 2w multi efeitos + 6 leds</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>USINA SPARK</t>
+          <t>SPARK</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1325,34 +1325,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>465</v>
+        <v>1159</v>
       </c>
       <c r="G25" t="n">
-        <v>1860</v>
+        <v>2318</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>MOTOR SHOP</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>fonte carregador usina 120 ah bob slim bivolt</t>
+          <t>fonte carregador automotiva usina 120a volt/amp black friday cor amarelo</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>USINA SPARK</t>
+          <t>SPARK</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1364,31 +1364,31 @@
         <v>3</v>
       </c>
       <c r="F26" t="n">
-        <v>465</v>
+        <v>642.59</v>
       </c>
       <c r="G26" t="n">
-        <v>1395</v>
+        <v>1927.77</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LOJA DO SOM 3</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>fonte digital 120a usina automotivo 120</t>
+          <t>fonte automotiva usina smart 120a bivolt battery metter</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>USINA SPARK</t>
+          <t>SPARK</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1397,34 +1397,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
-        <v>674</v>
+        <v>577.79</v>
       </c>
       <c r="G27" t="n">
-        <v>1348</v>
+        <v>1733.37</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>fonte carregador usina 120a bob slim biv</t>
+          <t>fonte automotiva usina 220 14,4v bivolt c/ voltímetro top cor preto</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>USINA SPARK</t>
+          <t>SPARK</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1436,31 +1436,31 @@
         <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>465</v>
+        <v>851.4</v>
       </c>
       <c r="G28" t="n">
-        <v>930</v>
+        <v>1702.8</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE 220A</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LOJA DO SOM</t>
+          <t>MOTOR SHOP</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>fonte carregador usina spark 100 amperes</t>
+          <t>usina charger profissional 60a auxiliar</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>USINA SPARK</t>
+          <t>SPARK</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1469,34 +1469,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>580</v>
+        <v>678.59</v>
       </c>
       <c r="G29" t="n">
-        <v>580</v>
+        <v>1357.18</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>ATACADÃO MIX</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>fonte e carregador automotivo usina 70a volt full</t>
+          <t>fonte automotiva usina 12v 320a pro edit</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>USINA SPARK</t>
+          <t>SPARK</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1508,14 +1508,14 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>548</v>
+        <v>1307.2</v>
       </c>
       <c r="G30" t="n">
-        <v>548</v>
+        <v>1307.2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE PFC 320A</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>fonte automotiva usina spark 200a 12v bivolt smart som autom cor preto - amarelo</t>
+          <t>usina charger profissional 60a auxiliar</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1541,29 +1541,29 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>838</v>
+        <v>636.64</v>
       </c>
       <c r="G31" t="n">
-        <v>5028</v>
+        <v>1273.28</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>MOTOR SHOP</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>fonte carregador automotiva usina 120a volt/amp black friday cor amarelo</t>
+          <t>nova fonte automotiva usina caixa bob 200a bivolt automática</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1577,29 +1577,29 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>607</v>
+        <v>624.61</v>
       </c>
       <c r="G32" t="n">
-        <v>4856</v>
+        <v>1249.22</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE BOB 200A</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>SPARK MUSICAL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>fonte e carregador usina bob 60a bivolt cor preto</t>
+          <t>cajon colo pro + vassourinha + correia +</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1613,29 +1613,29 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="G33" t="n">
-        <v>4140</v>
+        <v>1167</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>MOTOR SHOP</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>fonte automotiva usina spark 200a 12v bivolt smart som autom cor preto - amarelo</t>
+          <t>fonte automotiva usina spark 120a bivolt baterry meter</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1649,29 +1649,29 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>792</v>
+        <v>577.79</v>
       </c>
       <c r="G34" t="n">
-        <v>3960</v>
+        <v>1155.58</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MAKLEIN3920240920055314</t>
+          <t>VIMALUENDA20190630142123</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>mesa dmx 512 controladora 192 canais cabo dmx 110v/220v</t>
+          <t>pro smart charge - carregador e estabili</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1685,17 +1685,17 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>188.34</v>
+        <v>1150</v>
       </c>
       <c r="G35" t="n">
-        <v>3955.14</v>
+        <v>1150</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>fonte automotiva usina spark 120a bivolt baterry meter</t>
+          <t>inversor tensão onda senoidal usina 800w</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1721,29 +1721,29 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>642</v>
+        <v>1119</v>
       </c>
       <c r="G36" t="n">
-        <v>3852</v>
+        <v>1119</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>INVERSOR 800W</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MAKLEIN3920240920055314</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>mesa dmx comand wing + case</t>
+          <t>fonte carregador usina smart 70a bivolt 14,4v battery meter cor preto e amarelo</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1757,29 +1757,29 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>3490</v>
+        <v>438.3</v>
       </c>
       <c r="G37" t="n">
-        <v>3490</v>
+        <v>876.6</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>fonte automotivo usina 200a 14.4v voltimetro monovolt 220v cor preto e amarelo</t>
+          <t>fonte carregador usina smart 70a bivolt 14,4v battery meter cor preto e amarelo</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1793,29 +1793,27 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>696.88</v>
+        <v>438.3</v>
       </c>
       <c r="G38" t="n">
-        <v>3484.4</v>
+        <v>876.6</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>MOTOR SHOP</t>
-        </is>
+      <c r="A39" t="n">
+        <v>496508</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>fonte e carregador de baterias usina tru</t>
+          <t>refletor brut led 200w branco frio branco quente strobo dmx 110v/220v</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1829,13 +1827,13 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
-        <v>907.12</v>
+        <v>430</v>
       </c>
       <c r="G39" t="n">
-        <v>2721.36</v>
+        <v>860</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1846,12 +1844,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>MOTOR SHOP</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>fonte carregador de baterias usina truck</t>
+          <t>fonte automotiva usina 12v 220a volt amp</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1865,29 +1863,29 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>887</v>
+        <v>851.4</v>
       </c>
       <c r="G40" t="n">
-        <v>2661</v>
+        <v>851.4</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>FONTE 220A</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>RADICALSOM 2</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>fonte carregador usina smart 70a bivolt 14,4v battery meter cor preto e amarelo</t>
+          <t>kit fonte usina 120a volt c/ processador stetsom stx2448 cor amarelo</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1901,29 +1899,27 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>438</v>
+        <v>839</v>
       </c>
       <c r="G41" t="n">
-        <v>2628</v>
+        <v>839</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>MOTOR SHOP</t>
-        </is>
+      <c r="A42" t="n">
+        <v>24897</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>fonte carregador automotiva usina 120a volt/amp black friday cor amarelo</t>
+          <t>máquina inversora solda mini-120 mma + a</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1937,29 +1933,29 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>643</v>
+        <v>387.94</v>
       </c>
       <c r="G42" t="n">
-        <v>2572</v>
+        <v>775.88</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>fonte automotiva usina spark 120a bivolt baterry meter</t>
+          <t>fonte carregador usina 160a voltímetro plus bivolt cor preto/ amarelo</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1973,29 +1969,29 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>577.79</v>
+        <v>773.1</v>
       </c>
       <c r="G43" t="n">
-        <v>2311.16</v>
+        <v>773.1</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE 160A</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RADICALSOM</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>fonte automotiva 220a - 12v bivolt usina spark - heavy duty</t>
+          <t>fonte automotiva spark usina 160a smart</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2009,17 +2005,17 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>946</v>
+        <v>773.1</v>
       </c>
       <c r="G44" t="n">
-        <v>1892</v>
+        <v>773.1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE 160A</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2027,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>fonte automotiva usina smart 120a bivolt battery metter</t>
+          <t>fonte automotivo usina 200a 14.4v voltimetro monovolt 220v cor preto e amarelo</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2045,29 +2041,29 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>616</v>
+        <v>765</v>
       </c>
       <c r="G45" t="n">
-        <v>1848</v>
+        <v>765</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE 200A MONO</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>fonte automotiva usina spark 120a bivolt baterry meter</t>
+          <t>fonte e carregador automotivo usina 200a</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2081,29 +2077,29 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>578</v>
+        <v>765</v>
       </c>
       <c r="G46" t="n">
-        <v>1734</v>
+        <v>765</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>fonte automotiva usina 12v 220a volt amp</t>
+          <t>fonte usina 200 amperes c/ voltímetro bi</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2117,29 +2113,29 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>851</v>
+        <v>754.2</v>
       </c>
       <c r="G47" t="n">
-        <v>1702</v>
+        <v>754.2</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>fonte automotiva 220a - 12v bivolt usina spark - heavy duty</t>
+          <t>fonte automotiva usina spark 200a 12v bivolt smart som autom cor preto - amarelo</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2153,99 +2149,99 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>851</v>
+        <v>754.2</v>
       </c>
       <c r="G48" t="n">
-        <v>1702</v>
+        <v>754.2</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>fonte p/ caixa bob usina 200a voltímetro</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>754</v>
+      </c>
+      <c r="G49" t="n">
+        <v>754</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>FONTE BOB 200A</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
         <v>496508</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>máquina de fumaça 1200w + 6 leds rgb</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>5</v>
-      </c>
-      <c r="F49" t="n">
-        <v>339</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1695</v>
-      </c>
-      <c r="H49" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>máquina fumaça 750w rgb 9 led com strobo</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>3</v>
+      </c>
+      <c r="F50" t="n">
+        <v>249</v>
+      </c>
+      <c r="G50" t="n">
+        <v>747</v>
+      </c>
+      <c r="H50" t="inlineStr">
         <is>
           <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>fonte carregador usina spark 50a baterry meter 2021 bivolt cor amarelo</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>4</v>
-      </c>
-      <c r="F50" t="n">
-        <v>410</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1640</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>SHOP PRÁTICO</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>fonte automotiva 220a - 12v bivolt usina spark - heavy duty</t>
+          <t>fonte automotivo usina 200a 14.4v voltimetro monovolt 220v cor preto e amarelo</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2259,17 +2255,17 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>815</v>
+        <v>727.2</v>
       </c>
       <c r="G51" t="n">
-        <v>1630</v>
+        <v>727.2</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE 200A MONO</t>
         </is>
       </c>
     </row>
@@ -2281,7 +2277,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>inversor de tensão senoidal usina 1500w 12v 220v onda pura</t>
+          <t>fonte carregador usina 200a voltímetro m</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2298,26 +2294,26 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>1599.06</v>
+        <v>724.85</v>
       </c>
       <c r="G52" t="n">
-        <v>1599.06</v>
+        <v>724.85</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>INVERSOR 1500W</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TET ACESSÓRIOS</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>fonte automotivo usina 200a 14.4v voltimetro monovolt 220v cor preto e amarelo</t>
+          <t>fonte e carregador de baterias usina tru</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2331,29 +2327,29 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>789.52</v>
+        <v>724.5</v>
       </c>
       <c r="G53" t="n">
-        <v>1579.04</v>
+        <v>724.5</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TECNOAUDIO</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>fonte usina 400-a amperes bivolt flex 12</t>
+          <t>fonte e carregador usina bob 60a bivolt cor preto</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2367,29 +2363,27 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" t="n">
-        <v>1529</v>
+        <v>344.7</v>
       </c>
       <c r="G54" t="n">
-        <v>1529</v>
+        <v>689.4</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE BOB 60A</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
+      <c r="A55" t="n">
+        <v>496508</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>fonte automotiva usina 200a voltímetro d</t>
+          <t>máquina de fumaça 1200w + 6 leds rgb</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2406,26 +2400,26 @@
         <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>754</v>
+        <v>339</v>
       </c>
       <c r="G55" t="n">
-        <v>1508</v>
+        <v>678</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ELETROKING</t>
+          <t>SHOP ÁUDIO</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>fonte carregador automotiva usina 120a volt/amp black friday cor amarelo</t>
+          <t>fonte automotiva spark usina 120a + controle jfa k600 comple cor amarelo</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2439,29 +2433,29 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="G56" t="n">
-        <v>1308</v>
+        <v>674</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ATACADÃO MIX</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>fonte automotiva usina 12v 320a pro edit</t>
+          <t>fonte carregador usina 120a bivolt batte</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2478,24 +2472,26 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>1307.2</v>
+        <v>615.6</v>
       </c>
       <c r="G57" t="n">
-        <v>1307.2</v>
+        <v>615.6</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>496508</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>refletor brut led 200w branco frio branco quente strobo dmx 110v/220v</t>
+          <t>fonte automotiva usina 120a batery meter</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2509,27 +2505,29 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>430</v>
+        <v>615.6</v>
       </c>
       <c r="G58" t="n">
-        <v>1290</v>
+        <v>615.6</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>496508</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>TET ACESSÓRIOS</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>kit 2x mini moving beam 100w 8 desenhos</t>
+          <t>fonte automotiva spark usina 120a bivolt</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2546,14 +2544,14 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>1276</v>
+        <v>614.01</v>
       </c>
       <c r="G59" t="n">
-        <v>1276</v>
+        <v>614.01</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
     </row>
@@ -2565,7 +2563,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>fonte automotiva usina 12v 240a pro edit</t>
+          <t>fonte automotiva usina 120a battery mete</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2582,14 +2580,14 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>1251</v>
+        <v>577.8</v>
       </c>
       <c r="G60" t="n">
-        <v>1251</v>
+        <v>577.8</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2599,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>nova fonte automotiva usina caixa bob 200a bivolt automática</t>
+          <t>fonte usina 24v 30a truck smart cooler volt/amp bivolt cor preto</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2615,29 +2613,29 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>625</v>
+        <v>561.6</v>
       </c>
       <c r="G61" t="n">
-        <v>1250</v>
+        <v>561.6</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>fonte automotiva usina 120a 14.4v bivolt</t>
+          <t>fonte carregador usina 24v 30a truck lin</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2651,29 +2649,29 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>606.6</v>
+        <v>561.6</v>
       </c>
       <c r="G62" t="n">
-        <v>1213.2</v>
+        <v>561.6</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>fonte carregador automotivo usina 70a voltímetro bivolt</t>
+          <t>fonte carregador usina spark 100a voltimetro bivolt smart</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2687,17 +2685,17 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>548</v>
+        <v>549.9</v>
       </c>
       <c r="G63" t="n">
-        <v>1096</v>
+        <v>549.9</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE 100A</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2705,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2x moving head spot led 60w com disco fi</t>
+          <t>máquina fumaça 750w rgb 9 led com strobo</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2721,13 +2719,13 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
-        <v>1049.9</v>
+        <v>259</v>
       </c>
       <c r="G64" t="n">
-        <v>1049.9</v>
+        <v>518</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2738,12 +2736,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>LOJA DO SOM</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>conversor usina redutor de tensão 120a 24v para 12v</t>
+          <t>fonte automotiva usina 70a plus bi volt</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2760,26 +2758,26 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>1025</v>
+        <v>487</v>
       </c>
       <c r="G65" t="n">
-        <v>1025</v>
+        <v>487</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>BEST ONLINE</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>fonte carregador usina smart 70a bivolt 14,4v battery meter cor preto e amarelo</t>
+          <t>fonte carregador automotiva spark usina smart 50a bivolt</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2793,17 +2791,17 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>487</v>
+        <v>465.3</v>
       </c>
       <c r="G66" t="n">
-        <v>974</v>
+        <v>465.3</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE 50A</t>
         </is>
       </c>
     </row>
@@ -2829,29 +2827,29 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
         <v>448.04</v>
       </c>
       <c r="G67" t="n">
-        <v>896.08</v>
+        <v>448.04</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>RADICALSOM 2</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>(kit) fonte usina 200a bivolt c/ control</t>
+          <t>fonte carregador usina 70a battery meter</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2868,26 +2866,26 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>880</v>
+        <v>438.3</v>
       </c>
       <c r="G68" t="n">
-        <v>880</v>
+        <v>438.3</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>TECNOAUDIO</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>fonte usina 200a limited digital som aut</t>
+          <t>fonte carregador automotiva spark usina smart 50a bivolt</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2904,24 +2902,26 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>880</v>
+        <v>438.3</v>
       </c>
       <c r="G69" t="n">
-        <v>880</v>
+        <v>438.3</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE 50A</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>496508</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2x refletor brut led 200w branco + rgb s</t>
+          <t>fonte carregador bateria usina spark 50a</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2938,26 +2938,26 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>849</v>
+        <v>409.5</v>
       </c>
       <c r="G70" t="n">
-        <v>849</v>
+        <v>409.5</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>FONTE 50A</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>RADICALSOM 2</t>
+          <t>SPARK MUSICAL</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>kit fonte usina 120a volt c/ processador stetsom stx2448 cor amarelo</t>
+          <t>cajon colo pro + vassourinha + cabo + co</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2974,10 +2974,10 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>839</v>
+        <v>389</v>
       </c>
       <c r="G71" t="n">
-        <v>839</v>
+        <v>389</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -2988,12 +2988,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>LOJA DO SOM</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>fonte digital 200a usina voltímetro 200</t>
+          <t>fonte e carregador usina bob 60a bivolt cor preto</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3010,24 +3010,26 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>838</v>
+        <v>372.6</v>
       </c>
       <c r="G72" t="n">
-        <v>838</v>
+        <v>372.6</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE BOB 60A</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>496508</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>RADICALSOM</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>kit 4x refletor canhão par led rgb 54 leds dmx strobo dj 110v/220v</t>
+          <t>fonte carregador usina bob 60 amperes bi</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3041,29 +3043,29 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>419</v>
+        <v>372.6</v>
       </c>
       <c r="G73" t="n">
-        <v>838</v>
+        <v>372.6</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>OUTROS</t>
+          <t>FONTE BOB 60A</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>RADICALSOM</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>fonte carregador automotiva spark usina smart 50a bivolt</t>
+          <t>fonte carregador bob 60a amperes bivolt automático cor amarelo</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3077,29 +3079,29 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>413.95</v>
+        <v>345</v>
       </c>
       <c r="G74" t="n">
-        <v>827.9</v>
+        <v>345</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE BOB 60A</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>MOTOR SHOP</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>fonte carregador usina spark 50a baterry meter 2021 bivolt cor amarelo</t>
+          <t>fonte e carregador usina bob 60a bivolt cor preto</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3113,29 +3115,27 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>409.5</v>
+        <v>344.71</v>
       </c>
       <c r="G75" t="n">
-        <v>819</v>
+        <v>344.71</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE BOB 60A</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>PIKADULA PARTS</t>
-        </is>
+      <c r="A76" t="n">
+        <v>496508</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>fonte automotiva spark usina 200a 14,4v 220v com voltimetro cor amarelo</t>
+          <t>canhão refletor parled 36 leds 3w rgb tr</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3149,29 +3149,29 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F76" t="n">
-        <v>808</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="G76" t="n">
-        <v>808</v>
+        <v>315.6</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BEST ONLINE</t>
+          <t>MAKLEIN3920240920055314</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>fonte automotiva spark usina 200a 14,4v 220v com voltimetro cor amarelo</t>
+          <t>laser holografico festa 50mw verde com sensor de som 110v/220v</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3188,26 +3188,24 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>808</v>
+        <v>299</v>
       </c>
       <c r="G77" t="n">
-        <v>808</v>
+        <v>299</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>FONTE 50A</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>MOTOR SHOP</t>
-        </is>
+      <c r="A78" t="n">
+        <v>496508</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>fonte automotiva 70a 24v usina truckline</t>
+          <t>multi efeito globo led rgbw moving strob</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3224,10 +3222,10 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>805</v>
+        <v>299</v>
       </c>
       <c r="G78" t="n">
-        <v>805</v>
+        <v>299</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -3238,12 +3236,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MOTOR SHOP</t>
+          <t>SPARK MUSICAL</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>fonte automotiva 70a 24v usina truckline</t>
+          <t>cajon de colo + cinto + vassourinha + ca</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3260,10 +3258,10 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>805</v>
+        <v>259</v>
       </c>
       <c r="G79" t="n">
-        <v>805</v>
+        <v>259</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -3274,12 +3272,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>YTRIUM SHOP</t>
+          <t>@DIGVANE</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>fonte spark usina 160a lugar 150a 14,4v</t>
+          <t>lanterna de led magnética e função power bank multifuncional cor da lanterna azul cor da luz branco yanguí</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3296,26 +3294,26 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>773.1</v>
+        <v>231.92</v>
       </c>
       <c r="G80" t="n">
-        <v>773.1</v>
+        <v>231.92</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>YTRIUM SHOP</t>
+          <t>MAKLEIN3920240920055314</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>fonte automotiva 160 amperes 12v com voltímetro bivolt usina</t>
+          <t>espeto jardim projetor desenho led hallo</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3329,29 +3327,29 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
-        <v>773.1</v>
+        <v>109</v>
       </c>
       <c r="G81" t="n">
-        <v>773.1</v>
+        <v>218</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>MAKLEIN3920240920055314</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>fonte automotivo usina 200a 14.4v voltimetro monovolt 220v cor preto e amarelo</t>
+          <t>projetor área externa laser temático nat</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3368,26 +3366,26 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>765</v>
+        <v>134</v>
       </c>
       <c r="G82" t="n">
-        <v>765</v>
+        <v>134</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
+          <t>OUTROS</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SHOP PRÁTICO</t>
+          <t>MAKLEIN3920240920055314</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>fonte automotiva usina spark 200a 12v bivolt smart som autom cor preto - amarelo</t>
+          <t>projetor jardim laser temático natal ani</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3404,1770 +3402,14 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>754.2</v>
+        <v>119.9</v>
       </c>
       <c r="G83" t="n">
-        <v>754.2</v>
+        <v>119.9</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>fonte automotiva usina spark 200a 12v bivolt smart som autom cor preto - amarelo</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>1</v>
-      </c>
-      <c r="F84" t="n">
-        <v>754</v>
-      </c>
-      <c r="G84" t="n">
-        <v>754</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>fonte p/ caixa bob usina 200a voltímetro</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F85" t="n">
-        <v>754</v>
-      </c>
-      <c r="G85" t="n">
-        <v>754</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>MOTOR SHOP</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>fonte e carregador usina bob 60a bivolt cor preto</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>2</v>
-      </c>
-      <c r="F86" t="n">
-        <v>373</v>
-      </c>
-      <c r="G86" t="n">
-        <v>746</v>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>SHOP PRÁTICO</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>fonte automotivo usina 200a 14.4v voltimetro monovolt 220v cor preto e amarelo</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>1</v>
-      </c>
-      <c r="F87" t="n">
-        <v>727.2</v>
-      </c>
-      <c r="G87" t="n">
-        <v>727.2</v>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>fonte automotiva usina 160a 14,4v 220v com voltímetro som cor amarelo</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E88" t="n">
-        <v>1</v>
-      </c>
-      <c r="F88" t="n">
-        <v>709</v>
-      </c>
-      <c r="G88" t="n">
-        <v>709</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>SHOP PRÁTICO</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>fonte carregador usina 120a bivolt limited edition 15 anos cor preto</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>1</v>
-      </c>
-      <c r="F89" t="n">
-        <v>697.5</v>
-      </c>
-      <c r="G89" t="n">
-        <v>697.5</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>MOTOR SHOP</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>fonte bob usina p/ caixa bob 200a bivolt</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>1</v>
-      </c>
-      <c r="F90" t="n">
-        <v>694</v>
-      </c>
-      <c r="G90" t="n">
-        <v>694</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>MOTOR SHOP</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>usina charger profissional 60a auxiliar</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>1</v>
-      </c>
-      <c r="F91" t="n">
-        <v>692</v>
-      </c>
-      <c r="G91" t="n">
-        <v>692</v>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>fonte carregador bateria usina charger 60a regulador 14.4v cor amarelo</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>1</v>
-      </c>
-      <c r="F92" t="n">
-        <v>692</v>
-      </c>
-      <c r="G92" t="n">
-        <v>692</v>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>SHOP PRÁTICO</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>fonte automotiva usina spark 120a bivolt baterry meter</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>1</v>
-      </c>
-      <c r="F93" t="n">
-        <v>684</v>
-      </c>
-      <c r="G93" t="n">
-        <v>684</v>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>SHOP ÁUDIO</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>fonte automotiva spark usina 120a + controle jfa k600 comple cor amarelo</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
-        <v>1</v>
-      </c>
-      <c r="F94" t="n">
-        <v>674</v>
-      </c>
-      <c r="G94" t="n">
-        <v>674</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
           <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>fonte carregador automotiva usina 120a volt/amp black friday cor amarelo</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
-        <v>1</v>
-      </c>
-      <c r="F95" t="n">
-        <v>643</v>
-      </c>
-      <c r="G95" t="n">
-        <v>643</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>BEST ONLINE</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>fonte automotiva usina smart 120a bivolt battery metter</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E96" t="n">
-        <v>1</v>
-      </c>
-      <c r="F96" t="n">
-        <v>642</v>
-      </c>
-      <c r="G96" t="n">
-        <v>642</v>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>fonte 120 amperes usina smart cooler / c</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E97" t="n">
-        <v>1</v>
-      </c>
-      <c r="F97" t="n">
-        <v>642</v>
-      </c>
-      <c r="G97" t="n">
-        <v>642</v>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>BEST ONLINE</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>fonte automotiva usina spark 120a bivolt baterry meter</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E98" t="n">
-        <v>1</v>
-      </c>
-      <c r="F98" t="n">
-        <v>642</v>
-      </c>
-      <c r="G98" t="n">
-        <v>642</v>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>SHOP PRÁTICO</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>fonte automotiva usina smart 120a bivolt battery metter</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E99" t="n">
-        <v>1</v>
-      </c>
-      <c r="F99" t="n">
-        <v>615.6</v>
-      </c>
-      <c r="G99" t="n">
-        <v>615.6</v>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>fonte carregador usina spark 100a voltimetro bivolt smart</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E100" t="n">
-        <v>1</v>
-      </c>
-      <c r="F100" t="n">
-        <v>550</v>
-      </c>
-      <c r="G100" t="n">
-        <v>550</v>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>SHOP PRÁTICO</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>fonte automotiva usina 100a smart bivolt com voltímetro 12v cor preto</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E101" t="n">
-        <v>1</v>
-      </c>
-      <c r="F101" t="n">
-        <v>549.9</v>
-      </c>
-      <c r="G101" t="n">
-        <v>549.9</v>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>ELETROKING</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>fonte automotiva veicular usina 70-a amp</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E102" t="n">
-        <v>1</v>
-      </c>
-      <c r="F102" t="n">
-        <v>517</v>
-      </c>
-      <c r="G102" t="n">
-        <v>517</v>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>SHOP PRÁTICO</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>fonte carregador usina smart 70a bivolt 14,4v battery meter cor preto e amarelo</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E103" t="n">
-        <v>1</v>
-      </c>
-      <c r="F103" t="n">
-        <v>517</v>
-      </c>
-      <c r="G103" t="n">
-        <v>517</v>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>fonte carregador automotivo usina 70a voltímetro bivolt</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E104" t="n">
-        <v>1</v>
-      </c>
-      <c r="F104" t="n">
-        <v>517</v>
-      </c>
-      <c r="G104" t="n">
-        <v>517</v>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>fonte carregador usina 70a battery meter</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E105" t="n">
-        <v>1</v>
-      </c>
-      <c r="F105" t="n">
-        <v>487</v>
-      </c>
-      <c r="G105" t="n">
-        <v>487</v>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>LOJA DO SOM</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>fonte som automotivo 70 amperes bivolt c</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E106" t="n">
-        <v>1</v>
-      </c>
-      <c r="F106" t="n">
-        <v>487</v>
-      </c>
-      <c r="G106" t="n">
-        <v>487</v>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>BEST ONLINE</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>fonte carregador usina smart 70a bivolt 14,4v battery meter cor preto e amarelo</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E107" t="n">
-        <v>1</v>
-      </c>
-      <c r="F107" t="n">
-        <v>487</v>
-      </c>
-      <c r="G107" t="n">
-        <v>487</v>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>LOJA DO SOM</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>fonte automotiva usina 70a plus bi volt</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E108" t="n">
-        <v>1</v>
-      </c>
-      <c r="F108" t="n">
-        <v>487</v>
-      </c>
-      <c r="G108" t="n">
-        <v>487</v>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>496508</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>canhão refletor parled 36 leds 3w rgb tr</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E109" t="n">
-        <v>6</v>
-      </c>
-      <c r="F109" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="G109" t="n">
-        <v>473.4</v>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>fonte usina 120a dynamic bivolt 110/220</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E110" t="n">
-        <v>1</v>
-      </c>
-      <c r="F110" t="n">
-        <v>465</v>
-      </c>
-      <c r="G110" t="n">
-        <v>465</v>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>SPARK MUSICAL</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>cajon + vassourinha + cabo + shaker + ba</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E111" t="n">
-        <v>1</v>
-      </c>
-      <c r="F111" t="n">
-        <v>459</v>
-      </c>
-      <c r="G111" t="n">
-        <v>459</v>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>SHOP PRÁTICO</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>fonte carregador usina smart 70a bivolt</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E112" t="n">
-        <v>1</v>
-      </c>
-      <c r="F112" t="n">
-        <v>438.3</v>
-      </c>
-      <c r="G112" t="n">
-        <v>438.3</v>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>fonte carregador usina bob 60 amperes bi</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E113" t="n">
-        <v>1</v>
-      </c>
-      <c r="F113" t="n">
-        <v>414</v>
-      </c>
-      <c r="G113" t="n">
-        <v>414</v>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>SPARK MUSICAL</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>cajon colo pro + vassourinha + correia +</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E114" t="n">
-        <v>1</v>
-      </c>
-      <c r="F114" t="n">
-        <v>389</v>
-      </c>
-      <c r="G114" t="n">
-        <v>389</v>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>MUNDO ELETROSS</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>fonte e carregador usina bob 60a bivolt cor preto</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E115" t="n">
-        <v>1</v>
-      </c>
-      <c r="F115" t="n">
-        <v>383</v>
-      </c>
-      <c r="G115" t="n">
-        <v>383</v>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>fonte e carregador usina bob 60a bivolt cor preto</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E116" t="n">
-        <v>1</v>
-      </c>
-      <c r="F116" t="n">
-        <v>373</v>
-      </c>
-      <c r="G116" t="n">
-        <v>373</v>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>fonte carregador bob 60a amperes bivolt automático cor amarelo</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E117" t="n">
-        <v>1</v>
-      </c>
-      <c r="F117" t="n">
-        <v>373</v>
-      </c>
-      <c r="G117" t="n">
-        <v>373</v>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>SPARK MUSICAL</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>cajon de colo + cinto  + bag + vassourin</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E118" t="n">
-        <v>1</v>
-      </c>
-      <c r="F118" t="n">
-        <v>369</v>
-      </c>
-      <c r="G118" t="n">
-        <v>369</v>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>496508</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>multi efeito globo led rgbw moving strob</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E119" t="n">
-        <v>1</v>
-      </c>
-      <c r="F119" t="n">
-        <v>299</v>
-      </c>
-      <c r="G119" t="n">
-        <v>299</v>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>496508</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>kit 2x par led slim 12x3w rgbw-uv dmx st</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E120" t="n">
-        <v>1</v>
-      </c>
-      <c r="F120" t="n">
-        <v>279</v>
-      </c>
-      <c r="G120" t="n">
-        <v>279</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>496508</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>mini refletor strobo + efeitos led rgb +</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E121" t="n">
-        <v>1</v>
-      </c>
-      <c r="F121" t="n">
-        <v>249.9</v>
-      </c>
-      <c r="G121" t="n">
-        <v>249.9</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>EVA0520240919165107</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>cartucho universal spark linha 1rl 3rl 5</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E122" t="n">
-        <v>3</v>
-      </c>
-      <c r="F122" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="G122" t="n">
-        <v>227.7</v>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>PELACA20210528183634</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>tênis masculino feminino esportivo acade</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E123" t="n">
-        <v>2</v>
-      </c>
-      <c r="F123" t="n">
-        <v>64.98999999999999</v>
-      </c>
-      <c r="G123" t="n">
-        <v>129.98</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>MAKLEIN3920240920055314</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>projetor jardim laser temático natal ani</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E124" t="n">
-        <v>1</v>
-      </c>
-      <c r="F124" t="n">
-        <v>119.9</v>
-      </c>
-      <c r="G124" t="n">
-        <v>119.9</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>SPARK MUSICAL</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>bag case capa cajon de colo spark</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E125" t="n">
-        <v>1</v>
-      </c>
-      <c r="F125" t="n">
-        <v>79</v>
-      </c>
-      <c r="G125" t="n">
-        <v>79</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>PEREIRA740920240919163633</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>luminaria espelho penteadeira maquiagem</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E126" t="n">
-        <v>1</v>
-      </c>
-      <c r="F126" t="n">
-        <v>42.88</v>
-      </c>
-      <c r="G126" t="n">
-        <v>42.88</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>MOTOR SHOP</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>fonte automotiva usina 200a 14.4v voltimetro mono 220v cor preto e amarelo</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>SPARK USINA</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E127" t="n">
-        <v>2</v>
-      </c>
-      <c r="F127" t="n">
-        <v>808</v>
-      </c>
-      <c r="G127" t="n">
-        <v>1616</v>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>EXTREME ÁUDIO</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>fonte digital usina 220a plus - 14,4v -</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>SPARK USINA</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E128" t="n">
-        <v>1</v>
-      </c>
-      <c r="F128" t="n">
-        <v>946</v>
-      </c>
-      <c r="G128" t="n">
-        <v>946</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>RADICALSOM</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>fonte carregador náutico usina nauticlin</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>SPARK USINA</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E129" t="n">
-        <v>2</v>
-      </c>
-      <c r="F129" t="n">
-        <v>404</v>
-      </c>
-      <c r="G129" t="n">
-        <v>808</v>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>MOTOR SHOP</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>fonte automotiva usina 200a 14.4v voltimetro mono 220v cor preto e amarelo</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>SPARK USINA</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E130" t="n">
-        <v>1</v>
-      </c>
-      <c r="F130" t="n">
-        <v>756.5</v>
-      </c>
-      <c r="G130" t="n">
-        <v>756.5</v>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>RADICALSOM 4</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>fonte carregador náutico usina nauticlin</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>SPARK USINA</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E131" t="n">
-        <v>1</v>
-      </c>
-      <c r="F131" t="n">
-        <v>409</v>
-      </c>
-      <c r="G131" t="n">
-        <v>409</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>OUTROS</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>LOJA DO SOM</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>fonte usina automotiva 60a bi volt bater</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>USINA BOB</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="E132" t="n">
-        <v>1</v>
-      </c>
-      <c r="F132" t="n">
-        <v>383</v>
-      </c>
-      <c r="G132" t="n">
-        <v>383</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>INVERSOR</t>
         </is>
       </c>
     </row>
